--- a/03.Clasificacion/Other_cycles/Other_cycles_p/P_EPA_US06.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_p/P_EPA_US06.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12891.83648</v>
+        <v>11673.61806</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.22232</v>
+        <v>92.97572</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.25266</v>
+        <v>111.12936</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.62781</v>
+        <v>0.40009</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>427</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1932</v>
+        <v>0.14506</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.57766</v>
+        <v>-0.3934</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.95539</v>
+        <v>-2.84359</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.5</v>
+        <v>3.54767</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.66667</v>
+        <v>96.67406</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.16667</v>
+        <v>30.37694</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.5</v>
+        <v>66.29712000000001</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.30968</v>
+        <v>94.93037</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01321</v>
+        <v>0.00813</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.61644</v>
+        <v>179.31375</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02805</v>
+        <v>0.01536</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.14767</v>
+        <v>176.36451</v>
       </c>
     </row>
   </sheetData>
